--- a/datasets/graph_info.xlsx
+++ b/datasets/graph_info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>graph G</t>
   </si>
@@ -90,6 +90,36 @@
     <t>Peh_edge(HAMSTER)</t>
   </si>
   <si>
+    <t>p2p-Gnutella04(NOT THE SAME)</t>
+  </si>
+  <si>
+    <t>ChicagoRegional(IN THE FIRST REPO BUT NOT USED)</t>
+  </si>
+  <si>
+    <t>jazz(IN THE FIRST REPO BUT NOT USED)</t>
+  </si>
+  <si>
+    <t>Stelzl(IN THE FIRST REPO BUT NOT USED)</t>
+  </si>
+  <si>
+    <t>NS(IN THE FIRST REPO BUT NOT USED)</t>
+  </si>
+  <si>
+    <t>maybe-PROTEINS-full(THE FIGEYS AND VIDAL ARE ALREADY HERE AND THIS IS NOT THE GRAPH MENTIONED IN THE 2 PAPERS)</t>
+  </si>
+  <si>
+    <t>ia-crime-moreno( THIS IS NOT THE GRAPH MENTIONED IN THE 2 PAPERS)</t>
+  </si>
+  <si>
+    <t>arenas-pgp</t>
+  </si>
+  <si>
+    <t>politician_edges</t>
+  </si>
+  <si>
+    <t>tvshow_edges</t>
+  </si>
+  <si>
     <t>ba_edgelist_1000_10</t>
   </si>
   <si>
@@ -117,34 +147,40 @@
     <t>ba_edgelist_3000_4</t>
   </si>
   <si>
-    <t>p2p-Gnutella04(NOT THE SAME)</t>
-  </si>
-  <si>
-    <t>ChicagoRegional(IN THE FIRST REPO BUT NOT USED)</t>
-  </si>
-  <si>
-    <t>jazz(IN THE FIRST REPO BUT NOT USED)</t>
-  </si>
-  <si>
-    <t>Stelzl(IN THE FIRST REPO BUT NOT USED)</t>
-  </si>
-  <si>
-    <t>NS(IN THE FIRST REPO BUT NOT USED)</t>
-  </si>
-  <si>
-    <t>maybe-PROTEINS-full(THE FIGEYS AND VIDAL ARE ALREADY HERE AND THIS IS NOT THE GRAPH MENTIONED IN THE 2 PAPERS)</t>
-  </si>
-  <si>
-    <t>ia-crime-moreno( THIS IS NOT THE GRAPH MENTIONED IN THE 2 PAPERS)</t>
-  </si>
-  <si>
-    <t>arenas-pgp</t>
-  </si>
-  <si>
-    <t>politician_edges</t>
-  </si>
-  <si>
-    <t>tvshow_edges</t>
+    <t>ba_edgelist_exp1_3000_4</t>
+  </si>
+  <si>
+    <t>ba_edgelist_exp1_4000_4</t>
+  </si>
+  <si>
+    <t>ba_edgelist_exp1_5000_4</t>
+  </si>
+  <si>
+    <t>ba_edgelist_exp1_6000_4</t>
+  </si>
+  <si>
+    <t>ba_edgelist_exp1_7000_4</t>
+  </si>
+  <si>
+    <t>ba_edgelist_exp1_8000_4</t>
+  </si>
+  <si>
+    <t>ba_edgelist_exp2_2000_10</t>
+  </si>
+  <si>
+    <t>ba_edgelist_exp2_2000_20</t>
+  </si>
+  <si>
+    <t>ba_edgelist_exp2_2000_4</t>
+  </si>
+  <si>
+    <t>ba_edgelist_exp3_4000_10</t>
+  </si>
+  <si>
+    <t>ba_edgelist_exp3_4000_2</t>
+  </si>
+  <si>
+    <t>ba_edgelist_exp3_4000_6</t>
   </si>
 </sst>
 </file>
@@ -239,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -262,11 +298,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -286,6 +340,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,16 +645,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
@@ -647,7 +704,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>10680</v>
@@ -752,7 +809,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>12979</v>
@@ -927,7 +984,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>829</v>
@@ -962,7 +1019,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>198</v>
@@ -1032,7 +1089,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>43466</v>
@@ -1067,7 +1124,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>1461</v>
@@ -1102,7 +1159,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>10876</v>
@@ -1242,7 +1299,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>1706</v>
@@ -1347,7 +1404,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>3892</v>
@@ -1382,7 +1439,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>5908</v>
@@ -1416,26 +1473,26 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>25</v>
+      <c r="A24" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="B24">
         <v>1000</v>
       </c>
       <c r="C24">
-        <v>3984</v>
+        <v>1996</v>
       </c>
       <c r="D24">
-        <v>3.984</v>
+        <v>3.992</v>
       </c>
       <c r="E24">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>3.4067904000000003E-2</v>
+        <v>2.5745090000000002E-2</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1447,30 +1504,30 @@
         <v>100</v>
       </c>
       <c r="K24">
-        <v>7.9759759999999992E-3</v>
+        <v>3.9959959999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>23</v>
+      <c r="A25" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B25">
         <v>1000</v>
       </c>
       <c r="C25">
-        <v>9900</v>
+        <v>4975</v>
       </c>
       <c r="D25">
-        <v>9.9</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E25">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>5.9122042E-2</v>
+        <v>4.3742125999999999E-2</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1482,30 +1539,30 @@
         <v>100</v>
       </c>
       <c r="K25">
-        <v>1.9819819999999998E-2</v>
+        <v>9.9599600000000003E-3</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
+      <c r="A26" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="B26">
         <v>1000</v>
       </c>
       <c r="C26">
-        <v>19600</v>
+        <v>9900</v>
       </c>
       <c r="D26">
-        <v>19.600000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="E26">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>9.4831428999999995E-2</v>
+        <v>6.2223878000000003E-2</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1517,30 +1574,30 @@
         <v>100</v>
       </c>
       <c r="K26">
-        <v>3.9239239000000002E-2</v>
+        <v>1.9819819999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>28</v>
+      <c r="A27" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="B27">
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>7984</v>
+        <v>3996</v>
       </c>
       <c r="D27">
-        <v>3.992</v>
+        <v>3.996</v>
       </c>
       <c r="E27">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>2.0222633E-2</v>
+        <v>1.6056002999999999E-2</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1552,30 +1609,30 @@
         <v>100</v>
       </c>
       <c r="K27">
-        <v>3.993997E-3</v>
+        <v>1.998999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>26</v>
+      <c r="A28" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B28">
         <v>2000</v>
       </c>
       <c r="C28">
-        <v>19900</v>
+        <v>9975</v>
       </c>
       <c r="D28">
-        <v>9.9499999999999993</v>
+        <v>9.9749999999999996</v>
       </c>
       <c r="E28">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>3.7408047E-2</v>
+        <v>2.3612931E-2</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1587,30 +1644,30 @@
         <v>100</v>
       </c>
       <c r="K28">
-        <v>9.9549770000000003E-3</v>
+        <v>4.9899949999999997E-3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>27</v>
+      <c r="A29" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B29">
         <v>2000</v>
       </c>
       <c r="C29">
-        <v>39600</v>
+        <v>19900</v>
       </c>
       <c r="D29">
-        <v>19.8</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E29">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>5.8419039999999998E-2</v>
+        <v>3.7595340999999997E-2</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1622,30 +1679,30 @@
         <v>100</v>
       </c>
       <c r="K29">
-        <v>1.9809904999999999E-2</v>
+        <v>9.9549770000000003E-3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>31</v>
+      <c r="A30" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B30">
         <v>3000</v>
       </c>
       <c r="C30">
-        <v>11984</v>
+        <v>5996</v>
       </c>
       <c r="D30">
-        <v>3.9946666670000002</v>
+        <v>3.9973333329999998</v>
       </c>
       <c r="E30">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>1.6317302999999998E-2</v>
+        <v>1.1310415000000001E-2</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1657,30 +1714,30 @@
         <v>100</v>
       </c>
       <c r="K30">
-        <v>2.6639989999999998E-3</v>
+        <v>1.3328890000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>29</v>
+      <c r="A31" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B31">
         <v>3000</v>
       </c>
       <c r="C31">
-        <v>29900</v>
+        <v>14975</v>
       </c>
       <c r="D31">
-        <v>9.9666666670000001</v>
+        <v>9.9833333329999991</v>
       </c>
       <c r="E31">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>2.8863027999999999E-2</v>
+        <v>2.2032592E-2</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1692,30 +1749,30 @@
         <v>100</v>
       </c>
       <c r="K31">
-        <v>6.6466600000000004E-3</v>
+        <v>3.328887E-3</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>30</v>
+      <c r="A32" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B32">
         <v>3000</v>
       </c>
       <c r="C32">
-        <v>59600</v>
+        <v>29900</v>
       </c>
       <c r="D32">
-        <v>19.866666670000001</v>
+        <v>19.93333333</v>
       </c>
       <c r="E32">
-        <v>457</v>
+        <v>271</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>4.3947106E-2</v>
+        <v>2.7170151E-2</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1727,7 +1784,427 @@
         <v>100</v>
       </c>
       <c r="K32">
-        <v>1.3248861000000001E-2</v>
+        <v>6.6466600000000004E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>3000</v>
+      </c>
+      <c r="C33">
+        <v>5996</v>
+      </c>
+      <c r="D33">
+        <v>3.9973333329999998</v>
+      </c>
+      <c r="E33">
+        <v>148</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1.3331045E-2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>1.3328890000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>4000</v>
+      </c>
+      <c r="C34">
+        <v>7996</v>
+      </c>
+      <c r="D34">
+        <v>3.9980000000000002</v>
+      </c>
+      <c r="E34">
+        <v>177</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>9.5211189999999998E-3</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>9.9974999999999999E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>5000</v>
+      </c>
+      <c r="C35">
+        <v>9996</v>
+      </c>
+      <c r="D35">
+        <v>3.9984000000000002</v>
+      </c>
+      <c r="E35">
+        <v>142</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>5.5412029999999998E-3</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>7.9984000000000001E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>6000</v>
+      </c>
+      <c r="C36">
+        <v>11996</v>
+      </c>
+      <c r="D36">
+        <v>3.9986666670000002</v>
+      </c>
+      <c r="E36">
+        <v>271</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>6.8650639999999997E-3</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>100</v>
+      </c>
+      <c r="K36">
+        <v>6.6655600000000001E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>7000</v>
+      </c>
+      <c r="C37">
+        <v>13996</v>
+      </c>
+      <c r="D37">
+        <v>3.9988571429999999</v>
+      </c>
+      <c r="E37">
+        <v>143</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>4.7768039999999999E-3</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>5.7134700000000004E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>8000</v>
+      </c>
+      <c r="C38">
+        <v>15996</v>
+      </c>
+      <c r="D38">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="E38">
+        <v>177</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>5.8871820000000004E-3</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>4.9993699999999999E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>2000</v>
+      </c>
+      <c r="C39">
+        <v>3996</v>
+      </c>
+      <c r="D39">
+        <v>3.996</v>
+      </c>
+      <c r="E39">
+        <v>80</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1.7089152999999999E-2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>1.998999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>2000</v>
+      </c>
+      <c r="C40">
+        <v>9975</v>
+      </c>
+      <c r="D40">
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="E40">
+        <v>178</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>2.5999438999999999E-2</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>4.9899949999999997E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>2000</v>
+      </c>
+      <c r="C41">
+        <v>19900</v>
+      </c>
+      <c r="D41">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E41">
+        <v>232</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>3.7456128999999998E-2</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+      <c r="K41">
+        <v>9.9549770000000003E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>4000</v>
+      </c>
+      <c r="C42">
+        <v>3999</v>
+      </c>
+      <c r="D42">
+        <v>1.9995000000000001</v>
+      </c>
+      <c r="E42">
+        <v>86</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>4000</v>
+      </c>
+      <c r="C43">
+        <v>11991</v>
+      </c>
+      <c r="D43">
+        <v>5.9954999999999998</v>
+      </c>
+      <c r="E43">
+        <v>164</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>9.6183910000000004E-3</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>1.4992499999999999E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>4000</v>
+      </c>
+      <c r="C44">
+        <v>19975</v>
+      </c>
+      <c r="D44">
+        <v>9.9875000000000007</v>
+      </c>
+      <c r="E44">
+        <v>289</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>1.4559170999999999E-2</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>2.4974989999999998E-3</v>
       </c>
     </row>
   </sheetData>
